--- a/code/graph/3.10.24 bigpipe_sen1.xlsx
+++ b/code/graph/3.10.24 bigpipe_sen1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA50D1DA-ABF9-49C4-BB65-5E94CDD9420A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D320631-9C51-42DA-83E5-B5482E213F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05134FEF-8C97-4FF0-B710-C915636A9A2D}">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,9 +680,6 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.02</v>
       </c>
       <c r="C3">
         <v>0.01</v>
